--- a/results/gurobi_cplex_comparison/seed_30_k_15.xlsx
+++ b/results/gurobi_cplex_comparison/seed_30_k_15.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.006</v>
+        <v>0.424</v>
       </c>
       <c r="F2">
-        <v>0.018</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01</v>
+        <v>0.613</v>
       </c>
       <c r="F3">
-        <v>0.024</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.018</v>
+        <v>0.838</v>
       </c>
       <c r="F4">
-        <v>0.052</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.012</v>
+        <v>1.066</v>
       </c>
       <c r="F5">
-        <v>0.032</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.022</v>
+        <v>1.378</v>
       </c>
       <c r="F6">
-        <v>0.045</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.012</v>
+        <v>1.684</v>
       </c>
       <c r="F7">
-        <v>0.035</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.021</v>
+        <v>2.052</v>
       </c>
       <c r="F8">
-        <v>0.043</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.024</v>
+        <v>2.394</v>
       </c>
       <c r="F9">
-        <v>0.048</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.052</v>
+        <v>2.847</v>
       </c>
       <c r="F10">
-        <v>0.074</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.064</v>
+        <v>3.3</v>
       </c>
       <c r="F11">
-        <v>3.375</v>
+        <v>4.145</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.083</v>
+        <v>3.86</v>
       </c>
       <c r="F12">
-        <v>93.402</v>
+        <v>102.863</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06900000000000001</v>
+        <v>4.338</v>
       </c>
       <c r="F13">
-        <v>98.13</v>
+        <v>75.11</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.112</v>
+        <v>4.86</v>
       </c>
       <c r="F14">
-        <v>79.98099999999999</v>
+        <v>115.278</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.031</v>
+        <v>5.375</v>
       </c>
       <c r="F15">
-        <v>84.81699999999999</v>
+        <v>102.924</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.035</v>
+        <v>6.005</v>
       </c>
       <c r="F16">
-        <v>124.251</v>
+        <v>87.03</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08</v>
+        <v>6.595</v>
       </c>
       <c r="F17">
-        <v>126.829</v>
+        <v>80.59</v>
       </c>
     </row>
   </sheetData>
